--- a/resources/data/raw_data/klang_valley_stations.xlsx
+++ b/resources/data/raw_data/klang_valley_stations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="540">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -76,7 +76,7 @@
     <t xml:space="preserve">#fe8e10</t>
   </si>
   <si>
-    <t xml:space="preserve">Kuala Lumpur</t>
+    <t xml:space="preserve">Klang Valley</t>
   </si>
   <si>
     <t xml:space="preserve">PUDU</t>
@@ -985,10 +985,16 @@
     <t xml:space="preserve">SB7</t>
   </si>
   <si>
-    <t xml:space="preserve">SBK01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRT Sungai Buloh - Kajang Line</t>
+    <t xml:space="preserve">KWASA DAMANSARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kajang Line</t>
   </si>
   <si>
     <t xml:space="preserve">Green</t>
@@ -997,316 +1003,643 @@
     <t xml:space="preserve">#008000</t>
   </si>
   <si>
+    <t xml:space="preserve">KWASA SENTRAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOTA DAMANSARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SURIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUTIARA DAMANSARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANDAR UTAMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHILEO DAMANSARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUSAT BANDAR DAMANSARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMANTAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUZIUM NEGARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MERDEKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG18A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUN RAZAK EXCHANGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COCHRANE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMAN PERTAMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMAN MIDAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMAN MUTIARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMAN CONNAUGHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMAN SUNTEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRI RAYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANDAR TUN HUSSIEN ONN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BATU 11 CHERAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUKIT DUKUNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUNGAI JERNIH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STADIUM KAJANG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Petaling Line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#721422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHERAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANDAR TUN RAZAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUNGAI BESI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUKIT JALIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRI PETALING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWAN BESAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUHIBBAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALAM SUTERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KINRARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOI PUCHONG JAYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUSAT BANDAR PUCHONG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMAN PERINDUSTRIAN PUCHONG (TPP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANDAR PUTERI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUCHONG PERDANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUCHONG PRIMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Putrajaya Line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#facd04</t>
+  </si>
+  <si>
     <t xml:space="preserve">KAMPUNG SELAMAT</t>
   </si>
   <si>
-    <t xml:space="preserve">SBK02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KWASA DAMANSARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBK04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KWASA SENTRAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBK05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KOTA DAMANSARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBK06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SURIAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBK07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUTIARA DAMANSARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBK08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BANDAR UTAMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBK09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTDI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBK10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHILEO DAMANSARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBK12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUSAT BANDAR DAMANSARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBK13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEMANTAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBK14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUZIUM NEGARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBK15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBK16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MERDEKA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBK17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBK18A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUN RAZAK EXCHANGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBK20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COCHRANE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBK21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBK22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMAN PERTAMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBK23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMAN MIDAH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBK24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMAN MUTIARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBK25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMAN CONNAUGHT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBK26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMAN SUNTEX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBK27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRI RAYA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBK28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BANDAR TUN HUSSIEN ONN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBK29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BATU 11 CHERAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBK30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUKIT DUKUNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBK31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUNGAI JERNIH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBK33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STADIUM KAJANG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBK34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBK35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sri Petaling Line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#721422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHERAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BANDAR TUN RAZAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUNGAI BESI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUKIT JALIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRI PETALING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWAN BESAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUHIBBAH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALAM SUTERA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KINRARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IOI PUCHONG JAYA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUSAT BANDAR PUCHONG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMAN PERINDUSTRIAN PUCHONG (TPP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BANDAR PUTERI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUCHONG PERDANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUCHONG PRIMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP9</t>
+    <t xml:space="preserve">PY03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAMANSARA DAMAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRI DAMANSARA BARAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRI DAMANSARA SENTRAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRI DAMANSARA TIMUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">METRO PRIMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEPONG BARU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JINJANG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRI DELIMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KENTONMEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JALAN IPOH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SENTUL BARAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOSPITAL KUALA LUMPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAJA UDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERSIARAN KLCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONLAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANDAR MALAYSIA UTARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANDAR MALAYSIA SELATAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUCHAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMAN NAGA EMAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERDANG RAYA UTARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERDANG RAYA SELATAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERDANG JAYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMAN EQUINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUTRA PERMAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 SIERRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYBERJAYA UTARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYBERJAYA CITY CENTRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUTRAJAYA SENTRAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sky Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#88cffa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAYU ARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BU11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAMANSARA IDAMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KERJAYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STADIUM SHAH ALAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANDARAYA SHAH ALAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UITM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOSPITAL SHAH ALAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANDAR BARU KLANG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASAR BESAR KLANG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JALAN MERU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMAN SELATAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRI ANDALAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLANG JAYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANDAR BUKIT TINGGI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOHAN SETIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS26</t>
   </si>
 </sst>
 </file>
@@ -1417,8 +1750,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1498,8 +1831,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Trains" displayName="Trains" ref="A1:J206" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:J206"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Trains" displayName="Trains" ref="A1:J204" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:J204"/>
   <tableColumns count="10">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Stop ID"/>
@@ -1520,10 +1853,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L206"/>
+  <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D53" activeCellId="0" sqref="D53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C224" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A224" activeCellId="0" sqref="A224"/>
+      <selection pane="bottomRight" activeCell="D234" activeCellId="0" sqref="D234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2604,7 +2941,7 @@
       <c r="D31" s="2" t="n">
         <v>3.206204</v>
       </c>
-      <c r="E31" s="5" t="n">
+      <c r="E31" s="2" t="n">
         <v>101.580781</v>
       </c>
       <c r="F31" s="0" t="s">
@@ -3129,7 +3466,7 @@
       <c r="D46" s="1" t="n">
         <v>2.903964</v>
       </c>
-      <c r="E46" s="6" t="n">
+      <c r="E46" s="1" t="n">
         <v>101.786039</v>
       </c>
       <c r="F46" s="0" t="s">
@@ -3969,7 +4306,7 @@
       <c r="D70" s="1" t="n">
         <v>3.075857</v>
       </c>
-      <c r="E70" s="6" t="n">
+      <c r="E70" s="1" t="n">
         <v>101.559779</v>
       </c>
       <c r="F70" s="0" t="s">
@@ -4109,7 +4446,7 @@
       <c r="D74" s="1" t="n">
         <v>3.042951</v>
       </c>
-      <c r="E74" s="6" t="n">
+      <c r="E74" s="1" t="n">
         <v>101.449642</v>
       </c>
       <c r="F74" s="0" t="s">
@@ -6653,34 +6990,34 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>75</v>
+        <v>321</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C147" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D147" s="3" t="n">
-        <v>3.206333</v>
-      </c>
-      <c r="E147" s="2" t="n">
-        <v>101.581736</v>
+        <v>3.17615</v>
+      </c>
+      <c r="E147" s="3" t="n">
+        <v>101.57205</v>
       </c>
       <c r="F147" s="0" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H147" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I147" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K147" s="0" t="s">
         <v>18</v>
@@ -6688,34 +7025,34 @@
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C148" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D148" s="3" t="n">
-        <v>3.19727</v>
-      </c>
-      <c r="E148" s="3" t="n">
-        <v>101.5785</v>
+        <v>3.169826</v>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>101.564913</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H148" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I148" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J148" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K148" s="0" t="s">
         <v>18</v>
@@ -6723,34 +7060,34 @@
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C149" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D149" s="3" t="n">
-        <v>3.17615</v>
+        <v>3.15013</v>
       </c>
       <c r="E149" s="3" t="n">
-        <v>101.57205</v>
+        <v>101.57869</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H149" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I149" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J149" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K149" s="0" t="s">
         <v>18</v>
@@ -6758,34 +7095,34 @@
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C150" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D150" s="3" t="n">
-        <v>3.169826</v>
-      </c>
-      <c r="E150" s="2" t="n">
-        <v>101.564913</v>
+        <v>3.14948</v>
+      </c>
+      <c r="E150" s="3" t="n">
+        <v>101.59392</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="G150" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H150" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I150" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J150" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K150" s="0" t="s">
         <v>18</v>
@@ -6793,34 +7130,34 @@
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C151" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D151" s="3" t="n">
-        <v>3.15013</v>
+        <v>3.1553</v>
       </c>
       <c r="E151" s="3" t="n">
-        <v>101.57869</v>
+        <v>101.60908</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H151" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I151" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J151" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K151" s="0" t="s">
         <v>18</v>
@@ -6828,34 +7165,34 @@
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C152" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D152" s="3" t="n">
-        <v>3.14948</v>
-      </c>
-      <c r="E152" s="3" t="n">
-        <v>101.59392</v>
+        <v>3.146504</v>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>101.618798</v>
       </c>
       <c r="F152" s="0" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="G152" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H152" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I152" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J152" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K152" s="0" t="s">
         <v>18</v>
@@ -6863,34 +7200,34 @@
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C153" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D153" s="3" t="n">
-        <v>3.1553</v>
+        <v>3.13613</v>
       </c>
       <c r="E153" s="3" t="n">
-        <v>101.60908</v>
+        <v>101.63054</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H153" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I153" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J153" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K153" s="0" t="s">
         <v>18</v>
@@ -6898,34 +7235,34 @@
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C154" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D154" s="3" t="n">
-        <v>3.146504</v>
+        <v>3.129037</v>
       </c>
       <c r="E154" s="2" t="n">
-        <v>101.618798</v>
+        <v>101.643153</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H154" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I154" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J154" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K154" s="0" t="s">
         <v>18</v>
@@ -6933,34 +7270,34 @@
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C155" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D155" s="3" t="n">
-        <v>3.13613</v>
-      </c>
-      <c r="E155" s="3" t="n">
-        <v>101.63054</v>
+        <v>3.143323</v>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>101.662374</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="G155" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H155" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I155" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J155" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K155" s="0" t="s">
         <v>18</v>
@@ -6968,34 +7305,34 @@
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C156" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D156" s="3" t="n">
-        <v>3.129037</v>
+        <v>3.150982</v>
       </c>
       <c r="E156" s="2" t="n">
-        <v>101.643153</v>
+        <v>101.665292</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="G156" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H156" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I156" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J156" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K156" s="0" t="s">
         <v>18</v>
@@ -7003,34 +7340,34 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C157" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D157" s="3" t="n">
-        <v>3.143323</v>
-      </c>
-      <c r="E157" s="2" t="n">
-        <v>101.662374</v>
+        <v>3.13732</v>
+      </c>
+      <c r="E157" s="3" t="n">
+        <v>101.68734</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H157" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I157" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J157" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K157" s="0" t="s">
         <v>18</v>
@@ -7038,34 +7375,34 @@
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>345</v>
+        <v>198</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C158" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D158" s="3" t="n">
-        <v>3.150982</v>
-      </c>
-      <c r="E158" s="2" t="n">
-        <v>101.665292</v>
+        <v>3.14229</v>
+      </c>
+      <c r="E158" s="3" t="n">
+        <v>101.69556</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="G158" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H158" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I158" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J158" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K158" s="0" t="s">
         <v>18</v>
@@ -7073,34 +7410,34 @@
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C159" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D159" s="3" t="n">
-        <v>3.13732</v>
+        <v>3.14197</v>
       </c>
       <c r="E159" s="3" t="n">
-        <v>101.68734</v>
+        <v>101.70205</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H159" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I159" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J159" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K159" s="0" t="s">
         <v>18</v>
@@ -7108,34 +7445,34 @@
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>198</v>
+        <v>294</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C160" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D160" s="3" t="n">
-        <v>3.14229</v>
+        <v>3.1465</v>
       </c>
       <c r="E160" s="3" t="n">
-        <v>101.69556</v>
+        <v>101.71095</v>
       </c>
       <c r="F160" s="0" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="G160" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H160" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I160" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J160" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K160" s="0" t="s">
         <v>18</v>
@@ -7143,34 +7480,34 @@
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C161" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D161" s="3" t="n">
-        <v>3.14197</v>
+        <v>3.1424</v>
       </c>
       <c r="E161" s="3" t="n">
-        <v>101.70205</v>
+        <v>101.72016</v>
       </c>
       <c r="F161" s="0" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="G161" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H161" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I161" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J161" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K161" s="0" t="s">
         <v>18</v>
@@ -7178,34 +7515,34 @@
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>294</v>
+        <v>353</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C162" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D162" s="3" t="n">
-        <v>3.1465</v>
+        <v>3.13283</v>
       </c>
       <c r="E162" s="3" t="n">
-        <v>101.71095</v>
+        <v>101.72296</v>
       </c>
       <c r="F162" s="0" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="G162" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H162" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I162" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J162" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K162" s="0" t="s">
         <v>18</v>
@@ -7213,34 +7550,34 @@
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>353</v>
+        <v>25</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C163" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D163" s="3" t="n">
-        <v>3.1424</v>
+        <v>3.12362</v>
       </c>
       <c r="E163" s="3" t="n">
-        <v>101.72016</v>
+        <v>101.72781</v>
       </c>
       <c r="F163" s="0" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="G163" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H163" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I163" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J163" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K163" s="0" t="s">
         <v>18</v>
@@ -7248,34 +7585,34 @@
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C164" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D164" s="3" t="n">
-        <v>3.13283</v>
+        <v>3.11255</v>
       </c>
       <c r="E164" s="3" t="n">
-        <v>101.72296</v>
+        <v>101.72937</v>
       </c>
       <c r="F164" s="0" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="G164" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H164" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I164" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J164" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K164" s="0" t="s">
         <v>18</v>
@@ -7283,34 +7620,34 @@
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>25</v>
+        <v>358</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C165" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D165" s="3" t="n">
-        <v>3.12362</v>
+        <v>3.10451</v>
       </c>
       <c r="E165" s="3" t="n">
-        <v>101.72781</v>
+        <v>101.73219</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="G165" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H165" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I165" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J165" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K165" s="0" t="s">
         <v>18</v>
@@ -7318,34 +7655,34 @@
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C166" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D166" s="3" t="n">
-        <v>3.11255</v>
+        <v>3.09099</v>
       </c>
       <c r="E166" s="3" t="n">
-        <v>101.72937</v>
+        <v>101.74045</v>
       </c>
       <c r="F166" s="0" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="G166" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H166" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I166" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J166" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K166" s="0" t="s">
         <v>18</v>
@@ -7353,34 +7690,34 @@
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C167" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D167" s="3" t="n">
-        <v>3.10451</v>
+        <v>3.07917</v>
       </c>
       <c r="E167" s="3" t="n">
-        <v>101.73219</v>
+        <v>101.74522</v>
       </c>
       <c r="F167" s="0" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="G167" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H167" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I167" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J167" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K167" s="0" t="s">
         <v>18</v>
@@ -7388,34 +7725,34 @@
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C168" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D168" s="3" t="n">
-        <v>3.09099</v>
+        <v>3.07158</v>
       </c>
       <c r="E168" s="3" t="n">
-        <v>101.74045</v>
+        <v>101.76355</v>
       </c>
       <c r="F168" s="0" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="G168" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H168" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I168" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J168" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K168" s="0" t="s">
         <v>18</v>
@@ -7423,34 +7760,34 @@
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C169" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D169" s="3" t="n">
-        <v>3.07917</v>
+        <v>3.06227</v>
       </c>
       <c r="E169" s="3" t="n">
-        <v>101.74522</v>
+        <v>101.7729</v>
       </c>
       <c r="F169" s="0" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="G169" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H169" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I169" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J169" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K169" s="0" t="s">
         <v>18</v>
@@ -7458,34 +7795,34 @@
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C170" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D170" s="3" t="n">
-        <v>3.07158</v>
+        <v>3.04822</v>
       </c>
       <c r="E170" s="3" t="n">
-        <v>101.76355</v>
+        <v>101.77511</v>
       </c>
       <c r="F170" s="0" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="G170" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H170" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I170" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J170" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K170" s="0" t="s">
         <v>18</v>
@@ -7493,34 +7830,34 @@
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C171" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D171" s="3" t="n">
-        <v>3.06227</v>
+        <v>3.04134</v>
       </c>
       <c r="E171" s="3" t="n">
-        <v>101.7729</v>
+        <v>101.77338</v>
       </c>
       <c r="F171" s="0" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="G171" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H171" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I171" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J171" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K171" s="0" t="s">
         <v>18</v>
@@ -7528,34 +7865,34 @@
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C172" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D172" s="3" t="n">
-        <v>3.04822</v>
+        <v>3.02641</v>
       </c>
       <c r="E172" s="3" t="n">
-        <v>101.77511</v>
+        <v>101.77107</v>
       </c>
       <c r="F172" s="0" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="G172" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H172" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I172" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J172" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K172" s="0" t="s">
         <v>18</v>
@@ -7563,34 +7900,34 @@
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C173" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D173" s="3" t="n">
-        <v>3.04134</v>
+        <v>3.00095</v>
       </c>
       <c r="E173" s="3" t="n">
-        <v>101.77338</v>
+        <v>101.78386</v>
       </c>
       <c r="F173" s="0" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="G173" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H173" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I173" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J173" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K173" s="0" t="s">
         <v>18</v>
@@ -7598,34 +7935,34 @@
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C174" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D174" s="3" t="n">
-        <v>3.02641</v>
+        <v>2.99451</v>
       </c>
       <c r="E174" s="3" t="n">
-        <v>101.77107</v>
+        <v>101.78634</v>
       </c>
       <c r="F174" s="0" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="G174" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H174" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I174" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J174" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K174" s="0" t="s">
         <v>18</v>
@@ -7633,34 +7970,34 @@
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>376</v>
+        <v>102</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C175" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D175" s="3" t="n">
-        <v>3.00095</v>
+        <v>2.98278</v>
       </c>
       <c r="E175" s="3" t="n">
-        <v>101.78386</v>
+        <v>101.79028</v>
       </c>
       <c r="F175" s="0" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="G175" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H175" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I175" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J175" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K175" s="0" t="s">
         <v>18</v>
@@ -7668,7 +8005,7 @@
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>378</v>
+        <v>11</v>
       </c>
       <c r="B176" s="0" t="s">
         <v>379</v>
@@ -7677,25 +8014,25 @@
         <v>13</v>
       </c>
       <c r="D176" s="3" t="n">
-        <v>2.99451</v>
+        <v>3.185821</v>
       </c>
       <c r="E176" s="3" t="n">
-        <v>101.78634</v>
+        <v>101.6953347</v>
       </c>
       <c r="F176" s="0" t="s">
-        <v>305</v>
+        <v>380</v>
       </c>
       <c r="G176" s="0" t="s">
-        <v>322</v>
+        <v>381</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I176" s="0" t="s">
-        <v>323</v>
+        <v>382</v>
       </c>
       <c r="J176" s="4" t="s">
-        <v>324</v>
+        <v>383</v>
       </c>
       <c r="K176" s="0" t="s">
         <v>18</v>
@@ -7703,34 +8040,34 @@
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="B177" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="C177" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D177" s="3" t="n">
+        <v>3.1349203</v>
+      </c>
+      <c r="E177" s="3" t="n">
+        <v>101.7120109</v>
+      </c>
+      <c r="F177" s="0" t="s">
         <v>380</v>
       </c>
-      <c r="C177" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D177" s="3" t="n">
-        <v>2.98278</v>
-      </c>
-      <c r="E177" s="3" t="n">
-        <v>101.79028</v>
-      </c>
-      <c r="F177" s="0" t="s">
-        <v>305</v>
-      </c>
       <c r="G177" s="0" t="s">
-        <v>322</v>
+        <v>381</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I177" s="0" t="s">
-        <v>323</v>
+        <v>382</v>
       </c>
       <c r="J177" s="4" t="s">
-        <v>324</v>
+        <v>383</v>
       </c>
       <c r="K177" s="0" t="s">
         <v>18</v>
@@ -7738,34 +8075,34 @@
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B178" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="C178" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D178" s="2" t="n">
+        <v>3.128025</v>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>101.715546</v>
+      </c>
+      <c r="F178" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="G178" s="0" t="s">
         <v>381</v>
-      </c>
-      <c r="C178" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D178" s="3" t="n">
-        <v>3.185821</v>
-      </c>
-      <c r="E178" s="3" t="n">
-        <v>101.6953347</v>
-      </c>
-      <c r="F178" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="G178" s="0" t="s">
-        <v>383</v>
       </c>
       <c r="H178" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I178" s="0" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J178" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K178" s="0" t="s">
         <v>18</v>
@@ -7773,34 +8110,34 @@
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>19</v>
+        <v>386</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C179" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D179" s="3" t="n">
-        <v>3.1349203</v>
+        <v>3.1127471</v>
       </c>
       <c r="E179" s="3" t="n">
-        <v>101.7120109</v>
+        <v>101.7142134</v>
       </c>
       <c r="F179" s="0" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G179" s="0" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H179" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I179" s="0" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J179" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K179" s="0" t="s">
         <v>18</v>
@@ -7808,34 +8145,34 @@
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C180" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D180" s="2" t="n">
-        <v>3.128025</v>
-      </c>
-      <c r="E180" s="2" t="n">
-        <v>101.715546</v>
+      <c r="D180" s="3" t="n">
+        <v>3.1020093</v>
+      </c>
+      <c r="E180" s="3" t="n">
+        <v>101.7062726</v>
       </c>
       <c r="F180" s="0" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G180" s="0" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H180" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I180" s="0" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J180" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K180" s="0" t="s">
         <v>18</v>
@@ -7843,34 +8180,34 @@
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C181" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D181" s="3" t="n">
-        <v>3.1127471</v>
+        <v>3.0896262</v>
       </c>
       <c r="E181" s="3" t="n">
-        <v>101.7142134</v>
+        <v>101.7124138</v>
       </c>
       <c r="F181" s="0" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G181" s="0" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H181" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I181" s="0" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J181" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K181" s="0" t="s">
         <v>18</v>
@@ -7878,34 +8215,34 @@
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C182" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D182" s="3" t="n">
-        <v>3.1020093</v>
+        <v>3.0760669</v>
       </c>
       <c r="E182" s="3" t="n">
-        <v>101.7062726</v>
+        <v>101.7113108</v>
       </c>
       <c r="F182" s="0" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G182" s="0" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H182" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I182" s="0" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J182" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K182" s="0" t="s">
         <v>18</v>
@@ -7913,34 +8250,34 @@
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C183" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D183" s="3" t="n">
-        <v>3.0896262</v>
+        <v>3.063949</v>
       </c>
       <c r="E183" s="3" t="n">
-        <v>101.7124138</v>
+        <v>101.707987</v>
       </c>
       <c r="F183" s="0" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G183" s="0" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H183" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I183" s="0" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J183" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K183" s="0" t="s">
         <v>18</v>
@@ -7948,34 +8285,34 @@
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>98</v>
+        <v>394</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C184" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D184" s="3" t="n">
-        <v>3.0760669</v>
+        <v>3.0581476</v>
       </c>
       <c r="E184" s="3" t="n">
-        <v>101.7113108</v>
+        <v>101.6922163</v>
       </c>
       <c r="F184" s="0" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G184" s="0" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H184" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I184" s="0" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J184" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K184" s="0" t="s">
         <v>18</v>
@@ -7983,34 +8320,34 @@
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C185" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D185" s="3" t="n">
-        <v>3.063949</v>
+        <v>3.0615333</v>
       </c>
       <c r="E185" s="3" t="n">
-        <v>101.707987</v>
+        <v>101.687067</v>
       </c>
       <c r="F185" s="0" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G185" s="0" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H185" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I185" s="0" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J185" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K185" s="0" t="s">
         <v>18</v>
@@ -8018,34 +8355,34 @@
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C186" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D186" s="3" t="n">
-        <v>3.0581476</v>
+        <v>3.0620939</v>
       </c>
       <c r="E186" s="3" t="n">
-        <v>101.6922163</v>
+        <v>101.6706057</v>
       </c>
       <c r="F186" s="0" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G186" s="0" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H186" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I186" s="0" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J186" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K186" s="0" t="s">
         <v>18</v>
@@ -8053,34 +8390,34 @@
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>398</v>
+        <v>37</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C187" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D187" s="3" t="n">
-        <v>3.0615333</v>
+        <v>3.1785913</v>
       </c>
       <c r="E187" s="3" t="n">
-        <v>101.687067</v>
+        <v>101.6955104</v>
       </c>
       <c r="F187" s="0" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G187" s="0" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H187" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I187" s="0" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J187" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K187" s="0" t="s">
         <v>18</v>
@@ -8088,34 +8425,34 @@
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C188" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D188" s="3" t="n">
-        <v>3.0620939</v>
+        <v>3.061934</v>
       </c>
       <c r="E188" s="3" t="n">
-        <v>101.6706057</v>
+        <v>101.6627913</v>
       </c>
       <c r="F188" s="0" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G188" s="0" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H188" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I188" s="0" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J188" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K188" s="0" t="s">
         <v>18</v>
@@ -8123,34 +8460,34 @@
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>37</v>
+        <v>403</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C189" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D189" s="3" t="n">
-        <v>3.1785913</v>
+        <v>3.054838</v>
       </c>
       <c r="E189" s="3" t="n">
-        <v>101.6955104</v>
+        <v>101.656693</v>
       </c>
       <c r="F189" s="0" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G189" s="0" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H189" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I189" s="0" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J189" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K189" s="0" t="s">
         <v>18</v>
@@ -8158,34 +8495,34 @@
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C190" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D190" s="3" t="n">
-        <v>3.061934</v>
+        <v>3.0504561</v>
       </c>
       <c r="E190" s="3" t="n">
-        <v>101.6627913</v>
+        <v>101.6441548</v>
       </c>
       <c r="F190" s="0" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G190" s="0" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H190" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I190" s="0" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J190" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K190" s="0" t="s">
         <v>18</v>
@@ -8193,34 +8530,34 @@
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C191" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D191" s="3" t="n">
-        <v>3.054838</v>
-      </c>
-      <c r="E191" s="3" t="n">
-        <v>101.656693</v>
+      <c r="D191" s="2" t="n">
+        <v>3.048131</v>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>101.620982</v>
       </c>
       <c r="F191" s="0" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G191" s="0" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H191" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I191" s="0" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J191" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K191" s="0" t="s">
         <v>18</v>
@@ -8228,34 +8565,34 @@
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C192" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D192" s="3" t="n">
-        <v>3.0504561</v>
+        <v>3.0332844</v>
       </c>
       <c r="E192" s="3" t="n">
-        <v>101.6441548</v>
+        <v>101.6161195</v>
       </c>
       <c r="F192" s="0" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G192" s="0" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H192" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I192" s="0" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J192" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K192" s="0" t="s">
         <v>18</v>
@@ -8263,34 +8600,34 @@
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C193" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D193" s="2" t="n">
-        <v>3.048131</v>
-      </c>
-      <c r="E193" s="2" t="n">
-        <v>101.620982</v>
+      <c r="D193" s="3" t="n">
+        <v>3.0228113</v>
+      </c>
+      <c r="E193" s="3" t="n">
+        <v>101.6134326</v>
       </c>
       <c r="F193" s="0" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G193" s="0" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H193" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I193" s="0" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J193" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K193" s="0" t="s">
         <v>18</v>
@@ -8298,34 +8635,34 @@
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C194" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D194" s="3" t="n">
-        <v>3.0332844</v>
+        <v>3.0170653</v>
       </c>
       <c r="E194" s="3" t="n">
-        <v>101.6161195</v>
+        <v>101.6128287</v>
       </c>
       <c r="F194" s="0" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G194" s="0" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H194" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I194" s="0" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J194" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K194" s="0" t="s">
         <v>18</v>
@@ -8333,34 +8670,34 @@
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C195" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D195" s="3" t="n">
-        <v>3.0228113</v>
+        <v>3.0078521</v>
       </c>
       <c r="E195" s="3" t="n">
-        <v>101.6134326</v>
+        <v>101.6052534</v>
       </c>
       <c r="F195" s="0" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G195" s="0" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H195" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I195" s="0" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J195" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K195" s="0" t="s">
         <v>18</v>
@@ -8368,34 +8705,34 @@
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C196" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D196" s="3" t="n">
-        <v>3.0170653</v>
+        <v>2.9998922</v>
       </c>
       <c r="E196" s="3" t="n">
-        <v>101.6128287</v>
+        <v>101.5967379</v>
       </c>
       <c r="F196" s="0" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G196" s="0" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H196" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I196" s="0" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J196" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K196" s="0" t="s">
         <v>18</v>
@@ -8403,34 +8740,34 @@
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>417</v>
+        <v>39</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C197" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D197" s="3" t="n">
-        <v>3.0078521</v>
+        <v>3.1735914</v>
       </c>
       <c r="E197" s="3" t="n">
-        <v>101.6052534</v>
+        <v>101.6952734</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G197" s="0" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H197" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I197" s="0" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J197" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K197" s="0" t="s">
         <v>18</v>
@@ -8438,7 +8775,7 @@
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>419</v>
+        <v>245</v>
       </c>
       <c r="B198" s="0" t="s">
         <v>420</v>
@@ -8447,25 +8784,25 @@
         <v>13</v>
       </c>
       <c r="D198" s="3" t="n">
-        <v>2.9998922</v>
+        <v>2.9959685</v>
       </c>
       <c r="E198" s="3" t="n">
-        <v>101.5967379</v>
+        <v>101.5755436</v>
       </c>
       <c r="F198" s="0" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G198" s="0" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H198" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I198" s="0" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J198" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K198" s="0" t="s">
         <v>18</v>
@@ -8473,7 +8810,7 @@
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B199" s="0" t="s">
         <v>421</v>
@@ -8482,25 +8819,25 @@
         <v>13</v>
       </c>
       <c r="D199" s="3" t="n">
-        <v>3.1735914</v>
+        <v>3.1665629</v>
       </c>
       <c r="E199" s="3" t="n">
-        <v>101.6952734</v>
+        <v>101.6935944</v>
       </c>
       <c r="F199" s="0" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G199" s="0" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H199" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I199" s="0" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J199" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K199" s="0" t="s">
         <v>18</v>
@@ -8508,7 +8845,7 @@
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>245</v>
+        <v>43</v>
       </c>
       <c r="B200" s="0" t="s">
         <v>422</v>
@@ -8517,25 +8854,25 @@
         <v>13</v>
       </c>
       <c r="D200" s="3" t="n">
-        <v>2.9959685</v>
+        <v>3.1611848</v>
       </c>
       <c r="E200" s="3" t="n">
-        <v>101.5755436</v>
+        <v>101.6941266</v>
       </c>
       <c r="F200" s="0" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G200" s="0" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H200" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I200" s="0" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J200" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K200" s="0" t="s">
         <v>18</v>
@@ -8543,7 +8880,7 @@
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B201" s="0" t="s">
         <v>423</v>
@@ -8552,25 +8889,25 @@
         <v>13</v>
       </c>
       <c r="D201" s="3" t="n">
-        <v>3.1665629</v>
+        <v>3.155548</v>
       </c>
       <c r="E201" s="3" t="n">
-        <v>101.6935944</v>
+        <v>101.6944058</v>
       </c>
       <c r="F201" s="0" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G201" s="0" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H201" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I201" s="0" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J201" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K201" s="0" t="s">
         <v>18</v>
@@ -8578,7 +8915,7 @@
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B202" s="0" t="s">
         <v>424</v>
@@ -8587,25 +8924,25 @@
         <v>13</v>
       </c>
       <c r="D202" s="3" t="n">
-        <v>3.1611848</v>
+        <v>3.1494618</v>
       </c>
       <c r="E202" s="3" t="n">
-        <v>101.6941266</v>
+        <v>101.6963957</v>
       </c>
       <c r="F202" s="0" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G202" s="0" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H202" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I202" s="0" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J202" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K202" s="0" t="s">
         <v>18</v>
@@ -8613,7 +8950,7 @@
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B203" s="0" t="s">
         <v>425</v>
@@ -8622,25 +8959,25 @@
         <v>13</v>
       </c>
       <c r="D203" s="3" t="n">
-        <v>3.155548</v>
+        <v>3.1442638</v>
       </c>
       <c r="E203" s="3" t="n">
-        <v>101.6944058</v>
+        <v>101.7020543</v>
       </c>
       <c r="F203" s="0" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G203" s="0" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H203" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I203" s="0" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J203" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K203" s="0" t="s">
         <v>18</v>
@@ -8648,7 +8985,7 @@
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B204" s="0" t="s">
         <v>426</v>
@@ -8657,33 +8994,33 @@
         <v>13</v>
       </c>
       <c r="D204" s="3" t="n">
-        <v>3.1494618</v>
+        <v>3.1398426</v>
       </c>
       <c r="E204" s="3" t="n">
-        <v>101.6963957</v>
+        <v>101.7061334</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G204" s="0" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H204" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I204" s="0" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J204" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K204" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="B205" s="0" t="s">
         <v>427</v>
@@ -8692,69 +9029,2031 @@
         <v>13</v>
       </c>
       <c r="D205" s="3" t="n">
-        <v>3.1442638</v>
-      </c>
-      <c r="E205" s="3" t="n">
-        <v>101.7020543</v>
+        <v>3.206333</v>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>101.581736</v>
       </c>
       <c r="F205" s="0" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="G205" s="0" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
       <c r="H205" s="0" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I205" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="J205" s="4" t="s">
-        <v>385</v>
+        <v>430</v>
+      </c>
+      <c r="J205" s="5" t="s">
+        <v>431</v>
       </c>
       <c r="K205" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>51</v>
+        <v>432</v>
       </c>
       <c r="B206" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="C206" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D206" s="3" t="n">
+        <v>3.19727</v>
+      </c>
+      <c r="E206" s="3" t="n">
+        <v>101.5785</v>
+      </c>
+      <c r="F206" s="0" t="s">
         <v>428</v>
       </c>
-      <c r="C206" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D206" s="3" t="n">
-        <v>3.1398426</v>
-      </c>
-      <c r="E206" s="3" t="n">
-        <v>101.7061334</v>
-      </c>
-      <c r="F206" s="0" t="s">
-        <v>382</v>
-      </c>
       <c r="G206" s="0" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
       <c r="H206" s="0" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I206" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="J206" s="4" t="s">
-        <v>385</v>
+        <v>430</v>
+      </c>
+      <c r="J206" s="5" t="s">
+        <v>431</v>
       </c>
       <c r="K206" s="0" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="207" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="B207" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="C207" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D207" s="3" t="n">
+        <v>3.17615</v>
+      </c>
+      <c r="E207" s="3" t="n">
+        <v>101.57205</v>
+      </c>
+      <c r="F207" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="G207" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="H207" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I207" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="J207" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="K207" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="B208" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="C208" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D208" s="0" t="n">
+        <v>3.19975</v>
+      </c>
+      <c r="E208" s="0" t="n">
+        <v>101.59291</v>
+      </c>
+      <c r="F208" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="G208" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="H208" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I208" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="J208" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="K208" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="B209" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="C209" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D209" s="0" t="n">
+        <v>3.19826</v>
+      </c>
+      <c r="E209" s="0" t="n">
+        <v>101.60851</v>
+      </c>
+      <c r="F209" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="G209" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="H209" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I209" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="J209" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="K209" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="B210" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="C210" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D210" s="0" t="n">
+        <v>3.19857</v>
+      </c>
+      <c r="E210" s="0" t="n">
+        <v>101.62109</v>
+      </c>
+      <c r="F210" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="G210" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="H210" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I210" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="J210" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="K210" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="B211" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="C211" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D211" s="0" t="n">
+        <v>3.20759</v>
+      </c>
+      <c r="E211" s="0" t="n">
+        <v>101.62853</v>
+      </c>
+      <c r="F211" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="G211" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="H211" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I211" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="J211" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="K211" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="C212" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D212" s="0" t="n">
+        <v>3.2145331</v>
+      </c>
+      <c r="E212" s="0" t="n">
+        <v>101.6403922</v>
+      </c>
+      <c r="F212" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="G212" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="H212" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I212" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="J212" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="K212" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B213" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="C213" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D213" s="0" t="n">
+        <v>3.2116819</v>
+      </c>
+      <c r="E213" s="0" t="n">
+        <v>101.6481798</v>
+      </c>
+      <c r="F213" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="G213" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="H213" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I213" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="J213" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="K213" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="B214" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="C214" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D214" s="0" t="n">
+        <v>3.2095612</v>
+      </c>
+      <c r="E214" s="0" t="n">
+        <v>101.655921</v>
+      </c>
+      <c r="F214" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="G214" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="H214" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I214" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="J214" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="K214" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="B215" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="C215" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D215" s="0" t="n">
+        <v>3.2071591</v>
+      </c>
+      <c r="E215" s="0" t="n">
+        <v>101.6655782</v>
+      </c>
+      <c r="F215" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="G215" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="H215" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I215" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="J215" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="K215" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="C216" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D216" s="0" t="n">
+        <v>3.2058139</v>
+      </c>
+      <c r="E216" s="0" t="n">
+        <v>101.6752694</v>
+      </c>
+      <c r="F216" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="G216" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="H216" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I216" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="J216" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="K216" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B217" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="C217" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D217" s="0" t="n">
+        <v>3.1953557</v>
+      </c>
+      <c r="E217" s="0" t="n">
+        <v>101.679594</v>
+      </c>
+      <c r="F217" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="G217" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="H217" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I217" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="J217" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="K217" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="B218" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="C218" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D218" s="0" t="n">
+        <v>3.1894439</v>
+      </c>
+      <c r="E218" s="0" t="n">
+        <v>101.6810916</v>
+      </c>
+      <c r="F218" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="G218" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="H218" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I218" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="J218" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="K218" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="B219" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="C219" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D219" s="0" t="n">
+        <v>3.1789345</v>
+      </c>
+      <c r="E219" s="0" t="n">
+        <v>101.6851407</v>
+      </c>
+      <c r="F219" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="G219" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="H219" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I219" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="J219" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="K219" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B220" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="C220" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D220" s="0" t="n">
+        <v>3.1743686</v>
+      </c>
+      <c r="E220" s="0" t="n">
+        <v>101.6957808</v>
+      </c>
+      <c r="F220" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="G220" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="H220" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I220" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="J220" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="K220" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="B221" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="C221" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D221" s="0" t="n">
+        <v>3.1743373</v>
+      </c>
+      <c r="E221" s="0" t="n">
+        <v>101.7007581</v>
+      </c>
+      <c r="F221" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="G221" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="H221" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I221" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="J221" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="K221" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="B222" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="C222" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D222" s="0" t="n">
+        <v>3.1677147</v>
+      </c>
+      <c r="E222" s="0" t="n">
+        <v>101.7109624</v>
+      </c>
+      <c r="F222" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="G222" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="H222" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I222" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="J222" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="K222" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="B223" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="C223" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D223" s="0" t="n">
+        <v>3.1616005</v>
+      </c>
+      <c r="E223" s="0" t="n">
+        <v>101.7179084</v>
+      </c>
+      <c r="F223" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="G223" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="H223" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I223" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="J223" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="K223" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="B224" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="C224" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D224" s="0" t="n">
+        <v>3.156918</v>
+      </c>
+      <c r="E224" s="0" t="n">
+        <v>101.7177689</v>
+      </c>
+      <c r="F224" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="G224" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="H224" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I224" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="J224" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="K224" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="B225" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="C225" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D225" s="0" t="n">
+        <v>3.1504935</v>
+      </c>
+      <c r="E225" s="0" t="n">
+        <v>101.7185877</v>
+      </c>
+      <c r="F225" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="G225" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="H225" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I225" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="J225" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="K225" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="B226" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="C226" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D226" s="0" t="n">
+        <v>3.1428733</v>
+      </c>
+      <c r="E226" s="0" t="n">
+        <v>101.7199618</v>
+      </c>
+      <c r="F226" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="G226" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="H226" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I226" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="J226" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="K226" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B227" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="C227" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D227" s="0" t="n">
+        <v>3.128639</v>
+      </c>
+      <c r="E227" s="0" t="n">
+        <v>101.7163841</v>
+      </c>
+      <c r="F227" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="G227" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="H227" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I227" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="J227" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="K227" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="B228" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="C228" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D228" s="0" t="n">
+        <v>3.1161747</v>
+      </c>
+      <c r="E228" s="0" t="n">
+        <v>101.7032583</v>
+      </c>
+      <c r="F228" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="G228" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="H228" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I228" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="J228" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="K228" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="B229" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="C229" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D229" s="0" t="n">
+        <v>3.109663</v>
+      </c>
+      <c r="E229" s="0" t="n">
+        <v>101.6986584</v>
+      </c>
+      <c r="F229" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="G229" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="H229" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I229" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="J229" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="K229" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="B230" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="C230" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D230" s="0" t="n">
+        <v>3.0899187</v>
+      </c>
+      <c r="E230" s="0" t="n">
+        <v>101.6941523</v>
+      </c>
+      <c r="F230" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="G230" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="H230" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I230" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="J230" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="K230" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="B231" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="C231" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D231" s="0" t="n">
+        <v>3.0778341</v>
+      </c>
+      <c r="E231" s="0" t="n">
+        <v>101.6994691</v>
+      </c>
+      <c r="F231" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="G231" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="H231" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I231" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="J231" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="K231" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="B232" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="C232" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D232" s="0" t="n">
+        <v>3.0638548</v>
+      </c>
+      <c r="E232" s="0" t="n">
+        <v>101.708408</v>
+      </c>
+      <c r="F232" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="G232" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="H232" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I232" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="J232" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="K232" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="B233" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="C233" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D233" s="0" t="n">
+        <v>3.0418259</v>
+      </c>
+      <c r="E233" s="0" t="n">
+        <v>101.7050099</v>
+      </c>
+      <c r="F233" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="G233" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="H233" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I233" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="J233" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="K233" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="B234" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="C234" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D234" s="0" t="n">
+        <v>3.0283734</v>
+      </c>
+      <c r="E234" s="0" t="n">
+        <v>101.7076394</v>
+      </c>
+      <c r="F234" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="G234" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="H234" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I234" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="J234" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="K234" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B235" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="C235" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D235" s="0" t="n">
+        <v>3.0212631</v>
+      </c>
+      <c r="E235" s="0" t="n">
+        <v>101.7088123</v>
+      </c>
+      <c r="F235" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="G235" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="H235" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I235" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="J235" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="K235" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="B236" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="C236" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D236" s="0" t="n">
+        <v>3.0084664</v>
+      </c>
+      <c r="E236" s="0" t="n">
+        <v>101.7055219</v>
+      </c>
+      <c r="F236" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="G236" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="H236" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I236" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="J236" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="K236" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="B237" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="C237" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D237" s="0" t="n">
+        <v>2.9891967</v>
+      </c>
+      <c r="E237" s="0" t="n">
+        <v>101.6724892</v>
+      </c>
+      <c r="F237" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="G237" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="H237" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I237" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="J237" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="K237" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="B238" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="C238" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D238" s="0" t="n">
+        <v>2.9830917</v>
+      </c>
+      <c r="E238" s="0" t="n">
+        <v>101.6607427</v>
+      </c>
+      <c r="F238" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="G238" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="H238" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I238" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="J238" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="K238" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="B239" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="C239" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D239" s="0" t="n">
+        <v>2.9653594</v>
+      </c>
+      <c r="E239" s="0" t="n">
+        <v>101.6548848</v>
+      </c>
+      <c r="F239" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="G239" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="H239" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I239" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="J239" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="K239" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="B240" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="C240" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D240" s="0" t="n">
+        <v>2.9491993</v>
+      </c>
+      <c r="E240" s="0" t="n">
+        <v>101.6575149</v>
+      </c>
+      <c r="F240" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="G240" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="H240" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I240" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="J240" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="K240" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="B241" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="C241" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D241" s="0" t="n">
+        <v>2.9388745</v>
+      </c>
+      <c r="E241" s="0" t="n">
+        <v>101.665664</v>
+      </c>
+      <c r="F241" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="G241" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="H241" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I241" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="J241" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="K241" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="B242" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="C242" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D242" s="0" t="n">
+        <v>2.9312414</v>
+      </c>
+      <c r="E242" s="0" t="n">
+        <v>101.6714783</v>
+      </c>
+      <c r="F242" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="G242" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="H242" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I242" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="J242" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="K242" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="B243" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="C243" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D243" s="0" t="n">
+        <v>3.14441887569451</v>
+      </c>
+      <c r="E243" s="6" t="n">
+        <v>101.618146483385</v>
+      </c>
+      <c r="F243" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="G243" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="H243" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I243" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="J243" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="K243" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="B244" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="C244" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D244" s="0" t="n">
+        <v>3.13542853375522</v>
+      </c>
+      <c r="E244" s="6" t="n">
+        <v>101.61701455642</v>
+      </c>
+      <c r="F244" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="G244" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="H244" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I244" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="J244" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="K244" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="B245" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="C245" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D245" s="0" t="n">
+        <v>3.13347192373956</v>
+      </c>
+      <c r="E245" s="6" t="n">
+        <v>101.604916896427</v>
+      </c>
+      <c r="F245" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="G245" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="H245" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I245" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="J245" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="K245" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="B246" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="C246" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D246" s="0" t="n">
+        <v>3.12253415832453</v>
+      </c>
+      <c r="E246" s="6" t="n">
+        <v>101.594150538026</v>
+      </c>
+      <c r="F246" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="G246" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="H246" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I246" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="J246" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="K246" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="B247" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="C247" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D247" s="0" t="n">
+        <v>3.10642068338973</v>
+      </c>
+      <c r="E247" s="6" t="n">
+        <v>101.591202896529</v>
+      </c>
+      <c r="F247" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="G247" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="H247" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I247" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="J247" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="K247" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B248" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="C248" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D248" s="0" t="n">
+        <v>3.09585220429747</v>
+      </c>
+      <c r="E248" s="6" t="n">
+        <v>101.589185527507</v>
+      </c>
+      <c r="F248" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="G248" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="H248" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I248" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="J248" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="K248" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="B249" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="C249" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D249" s="0" t="n">
+        <v>3.08231904731534</v>
+      </c>
+      <c r="E249" s="6" t="n">
+        <v>101.5624194995</v>
+      </c>
+      <c r="F249" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="G249" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="H249" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I249" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="J249" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="K249" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="B250" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="C250" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D250" s="0" t="n">
+        <v>3.07935686374452</v>
+      </c>
+      <c r="E250" s="6" t="n">
+        <v>101.548090607185</v>
+      </c>
+      <c r="F250" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="G250" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="H250" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I250" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="J250" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="K250" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="B251" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="C251" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D251" s="0" t="n">
+        <v>3.06967110206797</v>
+      </c>
+      <c r="E251" s="6" t="n">
+        <v>101.521314681656</v>
+      </c>
+      <c r="F251" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="G251" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="H251" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I251" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="J251" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="K251" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="B252" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="C252" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D252" s="0" t="n">
+        <v>3.06241951541184</v>
+      </c>
+      <c r="E252" s="6" t="n">
+        <v>101.501484106765</v>
+      </c>
+      <c r="F252" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="G252" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="H252" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I252" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="J252" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="K252" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="B253" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="C253" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D253" s="0" t="n">
+        <v>3.06739268180679</v>
+      </c>
+      <c r="E253" s="6" t="n">
+        <v>101.487165540004</v>
+      </c>
+      <c r="F253" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="G253" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="H253" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I253" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="J253" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="K253" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="B254" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="C254" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D254" s="0" t="n">
+        <v>3.06255496225263</v>
+      </c>
+      <c r="E254" s="6" t="n">
+        <v>101.465626031008</v>
+      </c>
+      <c r="F254" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="G254" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="H254" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I254" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="J254" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="K254" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="B255" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="C255" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D255" s="0" t="n">
+        <v>3.06846769670108</v>
+      </c>
+      <c r="E255" s="6" t="n">
+        <v>101.450702563834</v>
+      </c>
+      <c r="F255" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="G255" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="H255" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I255" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="J255" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="K255" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="B256" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="C256" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D256" s="0" t="n">
+        <v>3.05898513697103</v>
+      </c>
+      <c r="E256" s="6" t="n">
+        <v>101.451942911384</v>
+      </c>
+      <c r="F256" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="G256" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="H256" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I256" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="J256" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="K256" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B257" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="C257" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D257" s="0" t="n">
+        <v>3.04691373319776</v>
+      </c>
+      <c r="E257" s="6" t="n">
+        <v>101.446971676794</v>
+      </c>
+      <c r="F257" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="G257" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="H257" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I257" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="J257" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="K257" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="B258" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="C258" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D258" s="0" t="n">
+        <v>3.02645034283064</v>
+      </c>
+      <c r="E258" s="6" t="n">
+        <v>101.442468985138</v>
+      </c>
+      <c r="F258" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="G258" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="H258" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I258" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="J258" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="K258" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="B259" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="C259" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D259" s="0" t="n">
+        <v>3.01522454834532</v>
+      </c>
+      <c r="E259" s="6" t="n">
+        <v>101.440441416477</v>
+      </c>
+      <c r="F259" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="G259" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="H259" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I259" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="J259" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="K259" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="B260" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="C260" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D260" s="0" t="n">
+        <v>3.00507214198751</v>
+      </c>
+      <c r="E260" s="6" t="n">
+        <v>101.442080777086</v>
+      </c>
+      <c r="F260" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="G260" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="H260" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I260" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="J260" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="K260" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="B261" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="C261" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D261" s="0" t="n">
+        <v>2.9935261490159</v>
+      </c>
+      <c r="E261" s="6" t="n">
+        <v>101.446174815966</v>
+      </c>
+      <c r="F261" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="G261" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="H261" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I261" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="J261" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="K261" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="B262" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="C262" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D262" s="0" t="n">
+        <v>2.97543580892496</v>
+      </c>
+      <c r="E262" s="6" t="n">
+        <v>101.460718080528</v>
+      </c>
+      <c r="F262" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="G262" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="H262" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I262" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="J262" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="K262" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
